--- a/AgriMonitor/target/classes/static/excel/水质监测数据导入模板.xlsx
+++ b/AgriMonitor/target/classes/static/excel/水质监测数据导入模板.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>所属地区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +114,10 @@
   </si>
   <si>
     <t>2019-03-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4343T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +492,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -575,7 +579,9 @@
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">

--- a/AgriMonitor/target/classes/static/excel/水质监测数据导入模板.xlsx
+++ b/AgriMonitor/target/classes/static/excel/水质监测数据导入模板.xlsx
@@ -16,11 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>所属地区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>刚察县</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,6 +114,17 @@
   </si>
   <si>
     <t>4343T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚察县水质监测数据导入模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-03-01</t>
+  </si>
+  <si>
+    <t>所属乡镇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -125,7 +132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +148,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -150,7 +166,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -173,13 +189,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -189,10 +229,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -489,128 +532,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="29.875" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
     <col min="3" max="3" width="20.125" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="5" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
+    <row r="1" spans="1:5" ht="27" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1"/>
+      <c r="E10" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/AgriMonitor/target/classes/static/excel/水质监测数据导入模板.xlsx
+++ b/AgriMonitor/target/classes/static/excel/水质监测数据导入模板.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47592A24-B720-455B-852B-0E9F8F4E6798}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,11 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
-  <si>
-    <t>刚察县</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>采样地点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,26 +110,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4343T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>刚察县水质监测数据导入模板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2019-03-01</t>
-  </si>
-  <si>
-    <t>所属乡镇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,7 +155,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -189,37 +178,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -227,12 +192,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -244,11 +203,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -290,7 +257,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,9 +289,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,6 +341,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -531,14 +534,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.125" customWidth="1"/>
     <col min="2" max="2" width="18.125" customWidth="1"/>
@@ -547,153 +550,140 @@
     <col min="5" max="5" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" customHeight="1">
-      <c r="A1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5">
+    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -706,12 +696,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -720,12 +710,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AgriMonitor/target/classes/static/excel/水质监测数据导入模板.xlsx
+++ b/AgriMonitor/target/classes/static/excel/水质监测数据导入模板.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47592A24-B720-455B-852B-0E9F8F4E6798}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
   <si>
     <t>采样地点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>℃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无量纲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,58 +61,344 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高锰酸盐指数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>化学需氧量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>五日生化需氧量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>氨氮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-03-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>刚察县水质监测数据导入模板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019-03-01</t>
+    <t>0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.084</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总磷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总氮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氟化物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.00×10-</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.00×10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-3L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.00×10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-4L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>锌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.009L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.00×10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-5L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.00×10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-4L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六价铬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.004L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挥发酚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氰化物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石油类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.01L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴离子表面活性剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.05L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硫化物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.005L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电导率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5.61</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>×10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粪大肠菌群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个/升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +417,23 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -184,7 +478,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -196,6 +490,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -215,7 +518,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -257,7 +560,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -289,27 +592,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,24 +626,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -534,36 +801,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.125" customWidth="1"/>
-    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="6" customWidth="1"/>
     <col min="3" max="3" width="20.125" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="5" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="27" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -576,114 +843,386 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
+      <c r="B3" s="5">
+        <v>43507</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5">
+        <v>43507</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
+        <v>43507</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>43507</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>43507</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
+        <v>43507</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5">
+        <v>43507</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5">
+        <v>43507</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5">
+        <v>43507</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5">
+        <v>43507</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="5">
+        <v>43507</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="5">
+        <v>43507</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="5">
+        <v>43507</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="5">
+        <v>43507</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="5">
+        <v>43507</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="5">
+        <v>43507</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="5">
+        <v>43507</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="5">
+        <v>43507</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="5">
+        <v>43507</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="5">
+        <v>43507</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="5">
+        <v>43507</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="5">
+        <v>43507</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="5">
+        <v>43507</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="5">
+        <v>43507</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="5">
+        <v>43507</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -696,12 +1235,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -710,12 +1249,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
